--- a/exp/Sim_20240907.xlsx
+++ b/exp/Sim_20240907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF31B427-98E0-FE48-A269-4FF39036DEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079E710F-E373-4747-9673-B19449FF75F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" activeTab="1" xr2:uid="{3F0271C6-0459-6B43-A671-C81010DB55A2}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21220" activeTab="1" xr2:uid="{3F0271C6-0459-6B43-A671-C81010DB55A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
   <si>
     <t>Dataset</t>
   </si>
@@ -2471,6 +2471,209 @@
       </rPr>
       <t>, 0.0000</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>tempLGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Option: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>lgcn_b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Dataset: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>epinion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Layers: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Decay: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Batch: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>400000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Temp: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.008</t>
+    </r>
+  </si>
+  <si>
+    <t>   RMSE: 1.0182, 1.0165, 1.0149, 1.0169, 1.0222 | 1.0177, 0.0025</t>
+  </si>
+  <si>
+    <t> Recall: 0.7863, 0.7802, 0.7793, 0.7820, 0.7812 | 0.7818, 0.0024</t>
+  </si>
+  <si>
+    <t>   Prec: 0.8021, 0.8089, 0.8029, 0.8011, 0.8041 | 0.8038, 0.0027</t>
+  </si>
+  <si>
+    <t> NDCG@5: 0.9007, 0.9046, 0.9026, 0.9024, 0.9042 | 0.9029, 0.0014</t>
+  </si>
+  <si>
+    <t>NDCG@10: 0.9156, 0.9196, 0.9182, 0.9177, 0.9187 | 0.9180, 0.0013</t>
+  </si>
+  <si>
+    <t>NDCG@15: 0.9199, 0.9238, 0.9225, 0.9221, 0.9228 | 0.9222, 0.0013</t>
+  </si>
+  <si>
+    <t>NDCG@20: 0.9220, 0.9259, 0.9247, 0.9241, 0.9250 | 0.9243, 0.0013</t>
   </si>
 </sst>
 </file>
@@ -3431,10 +3634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E219731-59E6-FF45-8628-0BA30F0051FC}">
-  <dimension ref="D3:H165"/>
+  <dimension ref="D3:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="I165" sqref="I165"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170:D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4133,6 +4336,51 @@
         <v>89</v>
       </c>
     </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D170" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D171" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D172" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D173" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D174" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D175" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D176" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D177" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D178" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
